--- a/data/bookings.xlsx
+++ b/data/bookings.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -427,6 +427,9 @@
       <c r="H1" t="str">
         <v>CreatedAt</v>
       </c>
+      <c r="I1" t="str">
+        <v>Amount</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -454,9 +457,38 @@
         <v>2025-12-25T06:57:20.842Z</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>1766768128750</v>
+      </c>
+      <c r="B3" t="str">
+        <v>teja</v>
+      </c>
+      <c r="C3" t="str">
+        <v>6383930090</v>
+      </c>
+      <c r="D3" t="str">
+        <v>teja@gmail.com</v>
+      </c>
+      <c r="E3" t="str">
+        <v>29-12-2025</v>
+      </c>
+      <c r="F3" t="str">
+        <v>18:00</v>
+      </c>
+      <c r="G3" t="str">
+        <v>22:00</v>
+      </c>
+      <c r="H3" t="str">
+        <v>2025-12-26T16:55:28.750Z</v>
+      </c>
+      <c r="I3">
+        <v>2000</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I3"/>
   </ignoredErrors>
 </worksheet>
 </file>